--- a/doc/data/export_visualization_df.xlsx
+++ b/doc/data/export_visualization_df.xlsx
@@ -16,6 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
+    <t>Qmax</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
     <t>tau</t>
   </si>
   <si>
@@ -23,12 +29,6 @@
   </si>
   <si>
     <t>Paper #</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>Q</t>
   </si>
   <si>
     <t>Full Cell 
@@ -442,19 +442,19 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>106.1090196372369</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0.4856405600758227</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>1.302511465362866</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2">
-        <v>106.1090196372369</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>500</v>
@@ -465,19 +465,19 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>105.112479104502</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0.4873564814643752</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1.171665551234814</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
       <c r="F3">
-        <v>105.112479104502</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>500</v>
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H4">
-        <v>550</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -514,19 +514,19 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>350</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -537,19 +537,19 @@
         <v>0</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H6">
-        <v>350</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -560,19 +560,19 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="H7">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>11</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
       </c>
       <c r="H8">
         <v>120</v>
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>11</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
       </c>
       <c r="H9">
         <v>170</v>
@@ -626,22 +626,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>153.7783652645406</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>0.9472680583112575</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2.223919256018393</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H10">
-        <v>120</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -649,22 +649,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>151.1248275859587</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>0.5298482565860553</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>2.244143484104387</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>120</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -672,22 +672,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>152.606459888769</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>0.2703646303441631</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1.884655015831774</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -695,22 +695,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9472680583112575</v>
+        <v>196.6459284968385</v>
       </c>
       <c r="C13">
-        <v>2.223919256018393</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>2.675261005030712e-06</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.115141225199289</v>
       </c>
       <c r="F13">
-        <v>153.7783652645406</v>
-      </c>
-      <c r="H13">
-        <v>220</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -718,22 +715,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5298482565860553</v>
+        <v>127.7166921490056</v>
       </c>
       <c r="C14">
-        <v>2.244143484104387</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>0.09230205106663794</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>4.669976716007622</v>
       </c>
       <c r="F14">
-        <v>151.1248275859587</v>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>220</v>
+        <v>69</v>
+      </c>
+      <c r="I14">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -741,22 +741,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2703646303441631</v>
+        <v>127.906352490902</v>
       </c>
       <c r="C15">
-        <v>1.884655015831774</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>0.09525889716251723</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>4.52673159588073</v>
       </c>
       <c r="F15">
-        <v>152.606459888769</v>
-      </c>
-      <c r="H15">
-        <v>220</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -764,307 +761,283 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.675261005030712e-06</v>
+        <v>135.2320396672094</v>
       </c>
       <c r="C16">
-        <v>0.115141225199289</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>0.0344672474065517</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2.421714012215387</v>
       </c>
       <c r="F16">
-        <v>196.6459284968385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09230205106663794</v>
+        <v>306.7576531483032</v>
       </c>
       <c r="C17">
-        <v>4.669976716007622</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>0.1098812605152593</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2.363978253375465</v>
       </c>
       <c r="F17">
-        <v>127.7166921490056</v>
+        <v>31</v>
       </c>
       <c r="H17">
-        <v>69</v>
-      </c>
-      <c r="I17">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.09525889716251723</v>
+        <v>313.6412579251271</v>
       </c>
       <c r="C18">
-        <v>4.52673159588073</v>
+        <v>2</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>0.09451542193317325</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1.402870295725338</v>
       </c>
       <c r="F18">
-        <v>127.906352490902</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.0344672474065517</v>
-      </c>
       <c r="C19">
-        <v>2.421714012215387</v>
-      </c>
-      <c r="D19">
-        <v>27</v>
-      </c>
-      <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>135.2320396672094</v>
-      </c>
-      <c r="H19">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>15</v>
-      </c>
-      <c r="J19">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0.1098812605152593</v>
-      </c>
       <c r="C20">
-        <v>2.363978253375465</v>
-      </c>
-      <c r="D20">
-        <v>31</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>306.7576531483032</v>
-      </c>
-      <c r="H20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.09451542193317325</v>
-      </c>
       <c r="C21">
-        <v>1.402870295725338</v>
-      </c>
-      <c r="D21">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>313.6412579251271</v>
-      </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
       </c>
       <c r="I22">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="F23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>4</v>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
+      <c r="C26">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>7</v>
-      </c>
-      <c r="I28">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="D31">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="D32">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>5</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="D33">
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="F33">
         <v>5</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="D34">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>6</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
       </c>
       <c r="H34">
         <v>200</v>
@@ -1077,11 +1050,11 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="D35">
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="F35">
         <v>6</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -1094,11 +1067,11 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="D36">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>7</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
       </c>
       <c r="G36">
         <v>0.4</v>
@@ -1114,11 +1087,11 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="D37">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="F37">
         <v>7</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
       </c>
       <c r="G37">
         <v>0.4</v>
@@ -1134,11 +1107,11 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="D38">
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="F38">
         <v>7</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
       </c>
       <c r="G38">
         <v>0.4</v>
@@ -1154,11 +1127,11 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="D39">
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="F39">
         <v>7</v>
-      </c>
-      <c r="E39">
-        <v>4</v>
       </c>
       <c r="G39">
         <v>0.4</v>
@@ -1174,11 +1147,11 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="D40">
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="F40">
         <v>7</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
       </c>
       <c r="G40">
         <v>0.4</v>
@@ -1194,11 +1167,11 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="D41">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>9</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
       </c>
       <c r="H41">
         <v>240</v>
@@ -1208,11 +1181,11 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="D42">
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="F42">
         <v>9</v>
-      </c>
-      <c r="E42">
-        <v>2</v>
       </c>
       <c r="H42">
         <v>480</v>
@@ -1222,11 +1195,11 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="D43">
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="F43">
         <v>9</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
       </c>
       <c r="H43">
         <v>240</v>
@@ -1236,11 +1209,11 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="D44">
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="F44">
         <v>9</v>
-      </c>
-      <c r="E44">
-        <v>4</v>
       </c>
       <c r="H44">
         <v>480</v>
@@ -1250,11 +1223,11 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="D45">
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="F45">
         <v>9</v>
-      </c>
-      <c r="E45">
-        <v>5</v>
       </c>
       <c r="G45">
         <v>480</v>
@@ -1267,11 +1240,11 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="D46">
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="F46">
         <v>9</v>
-      </c>
-      <c r="E46">
-        <v>6</v>
       </c>
       <c r="G46">
         <v>480</v>
@@ -1284,11 +1257,11 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="D47">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>14</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
       </c>
       <c r="I47">
         <v>6</v>
@@ -1301,11 +1274,11 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="D48">
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="F48">
         <v>14</v>
-      </c>
-      <c r="E48">
-        <v>2</v>
       </c>
       <c r="I48">
         <v>10</v>
@@ -1318,11 +1291,11 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="D49">
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="F49">
         <v>14</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
       </c>
       <c r="I49">
         <v>6</v>
@@ -1335,11 +1308,11 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="D50">
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="F50">
         <v>14</v>
-      </c>
-      <c r="E50">
-        <v>4</v>
       </c>
       <c r="I50">
         <v>10</v>
@@ -1352,11 +1325,11 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="D51">
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="F51">
         <v>14</v>
-      </c>
-      <c r="E51">
-        <v>5</v>
       </c>
       <c r="I51">
         <v>12</v>
@@ -1369,11 +1342,11 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="D52">
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="F52">
         <v>14</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
       </c>
       <c r="I52">
         <v>12</v>
@@ -1386,11 +1359,11 @@
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="D53">
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="F53">
         <v>14</v>
-      </c>
-      <c r="E53">
-        <v>7</v>
       </c>
       <c r="I53">
         <v>10</v>
@@ -1403,11 +1376,11 @@
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="D54">
+      <c r="C54">
+        <v>8</v>
+      </c>
+      <c r="F54">
         <v>14</v>
-      </c>
-      <c r="E54">
-        <v>8</v>
       </c>
       <c r="I54">
         <v>10</v>
@@ -1420,11 +1393,11 @@
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="D55">
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>18</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
       </c>
       <c r="H55">
         <v>200</v>
@@ -1440,11 +1413,11 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="D56">
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="F56">
         <v>18</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
       </c>
       <c r="H56">
         <v>200</v>
@@ -1460,11 +1433,11 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="D57">
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="F57">
         <v>18</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
       </c>
       <c r="H57">
         <v>200</v>
@@ -1480,11 +1453,11 @@
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="D58">
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="F58">
         <v>18</v>
-      </c>
-      <c r="E58">
-        <v>4</v>
       </c>
       <c r="H58">
         <v>200</v>
@@ -1500,22 +1473,22 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="D59">
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="F59">
         <v>22</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="D60">
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="F60">
         <v>24</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
       </c>
       <c r="I60">
         <v>18.5</v>
@@ -1525,11 +1498,11 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="D61">
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="F61">
         <v>24</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
       </c>
       <c r="I61">
         <v>18.5</v>
@@ -1539,11 +1512,11 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="D62">
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="F62">
         <v>24</v>
-      </c>
-      <c r="E62">
-        <v>3</v>
       </c>
       <c r="I62">
         <v>18.5</v>
@@ -1553,11 +1526,11 @@
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="D63">
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="F63">
         <v>24</v>
-      </c>
-      <c r="E63">
-        <v>4</v>
       </c>
       <c r="I63">
         <v>18.5</v>
@@ -1567,11 +1540,11 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="D64">
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="F64">
         <v>25</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
       </c>
       <c r="H64">
         <v>64.90000000000001</v>
@@ -1581,11 +1554,11 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="D65">
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="F65">
         <v>25</v>
-      </c>
-      <c r="E65">
-        <v>2</v>
       </c>
       <c r="H65">
         <v>61.8</v>
@@ -1595,11 +1568,11 @@
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="D66">
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="F66">
         <v>26</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
       </c>
       <c r="G66">
         <v>500</v>
@@ -1615,11 +1588,11 @@
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="D67">
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="F67">
         <v>28</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
       </c>
       <c r="G67">
         <v>5.7</v>
@@ -1638,11 +1611,11 @@
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="D68">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="F68">
         <v>29</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
       </c>
       <c r="H68">
         <v>1060</v>
@@ -1658,11 +1631,11 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="D69">
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="F69">
         <v>30</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
       </c>
       <c r="I69">
         <v>400</v>
@@ -1675,11 +1648,11 @@
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="D70">
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="F70">
         <v>30</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
       </c>
       <c r="I70">
         <v>400</v>
@@ -1692,11 +1665,11 @@
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="D71">
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="F71">
         <v>30</v>
-      </c>
-      <c r="E71">
-        <v>3</v>
       </c>
       <c r="I71">
         <v>400</v>
@@ -1709,11 +1682,11 @@
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="D72">
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="F72">
         <v>30</v>
-      </c>
-      <c r="E72">
-        <v>4</v>
       </c>
       <c r="I72">
         <v>400</v>
@@ -1726,11 +1699,11 @@
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="D73">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="F73">
         <v>32</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
       </c>
       <c r="I73">
         <v>200</v>
@@ -1740,11 +1713,11 @@
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="D74">
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="F74">
         <v>32</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
       </c>
       <c r="I74">
         <v>450</v>
@@ -1754,11 +1727,11 @@
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="D75">
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="F75">
         <v>32</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
       </c>
       <c r="I75">
         <v>820</v>
@@ -1768,11 +1741,11 @@
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="D76">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="F76">
         <v>33</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
       </c>
       <c r="I76">
         <v>0.04</v>
@@ -1785,11 +1758,11 @@
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="D77">
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="F77">
         <v>34</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
       </c>
       <c r="G77">
         <v>0.16</v>
@@ -1805,11 +1778,11 @@
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="D78">
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="F78">
         <v>34</v>
-      </c>
-      <c r="E78">
-        <v>2</v>
       </c>
       <c r="G78">
         <v>0.16</v>
@@ -1825,11 +1798,11 @@
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="D79">
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="F79">
         <v>34</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
       </c>
       <c r="G79">
         <v>0.16</v>
@@ -1839,11 +1812,11 @@
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="D80">
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="F80">
         <v>34</v>
-      </c>
-      <c r="E80">
-        <v>4</v>
       </c>
       <c r="G80">
         <v>0.16</v>
@@ -1853,11 +1826,11 @@
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="D81">
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="F81">
         <v>35</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
       </c>
       <c r="H81">
         <v>14.9</v>
@@ -1870,11 +1843,11 @@
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="D82">
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="F82">
         <v>35</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
       </c>
       <c r="H82">
         <v>12.6</v>
@@ -1887,11 +1860,11 @@
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="D83">
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="F83">
         <v>35</v>
-      </c>
-      <c r="E83">
-        <v>3</v>
       </c>
       <c r="H83">
         <v>9.9</v>
@@ -1904,11 +1877,11 @@
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="D84">
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="F84">
         <v>35</v>
-      </c>
-      <c r="E84">
-        <v>4</v>
       </c>
       <c r="H84">
         <v>15.2</v>
@@ -1921,11 +1894,11 @@
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="D85">
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="F85">
         <v>35</v>
-      </c>
-      <c r="E85">
-        <v>5</v>
       </c>
       <c r="H85">
         <v>14.9</v>
@@ -1938,11 +1911,11 @@
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="D86">
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="F86">
         <v>35</v>
-      </c>
-      <c r="E86">
-        <v>6</v>
       </c>
       <c r="H86">
         <v>14.7</v>
@@ -1955,11 +1928,11 @@
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="D87">
+      <c r="C87">
+        <v>7</v>
+      </c>
+      <c r="F87">
         <v>35</v>
-      </c>
-      <c r="E87">
-        <v>7</v>
       </c>
       <c r="H87">
         <v>14.9</v>
@@ -1972,11 +1945,11 @@
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="D88">
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="F88">
         <v>35</v>
-      </c>
-      <c r="E88">
-        <v>8</v>
       </c>
       <c r="H88">
         <v>11.7</v>
@@ -1989,22 +1962,22 @@
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="D89">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="F89">
         <v>36</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="D90">
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="F90">
         <v>37</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
       </c>
       <c r="G90">
         <v>10</v>
@@ -2020,11 +1993,11 @@
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="D91">
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="F91">
         <v>37</v>
-      </c>
-      <c r="E91">
-        <v>2</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -2040,11 +2013,11 @@
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="D92">
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="F92">
         <v>37</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
       </c>
       <c r="G92">
         <v>10</v>
@@ -2060,11 +2033,11 @@
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="D93">
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="F93">
         <v>37</v>
-      </c>
-      <c r="E93">
-        <v>4</v>
       </c>
       <c r="G93">
         <v>10</v>
